--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE454BA9-4E20-F74B-AB63-147F4CE45E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B56EC-823B-174D-AC16-AA37A94923F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="10460" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
   <si>
     <t>No.</t>
   </si>
@@ -213,9 +213,21 @@
     <t>binary</t>
   </si>
   <si>
+    <t>v_x</t>
+  </si>
+  <si>
+    <t>v_y</t>
+  </si>
+  <si>
+    <t>v_z</t>
+  </si>
+  <si>
     <t>EA</t>
   </si>
   <si>
+    <t>velocity</t>
+  </si>
+  <si>
     <t>ec</t>
   </si>
   <si>
@@ -339,25 +351,19 @@
     <t>cjc</t>
   </si>
   <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
     <t>PDU inhibit 1</t>
   </si>
   <si>
     <t>PDU inhibit 2</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>Yaw</t>
-  </si>
-  <si>
-    <t>disk space</t>
   </si>
   <si>
     <t>PCB</t>
@@ -726,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -816,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -854,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1275,7 +1281,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1284,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1313,7 +1319,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2070,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2108,10 +2114,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2146,10 +2152,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2158,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2184,10 +2190,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2196,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2222,10 +2228,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2260,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2298,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2336,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2374,10 +2380,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2386,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2412,19 +2418,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2450,19 +2456,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2488,19 +2494,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2526,19 +2532,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2564,19 +2570,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2602,19 +2608,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2640,19 +2646,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D51" s="2">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2678,19 +2684,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2716,19 +2722,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2754,19 +2760,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2792,19 +2798,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D55" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2830,19 +2836,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D56" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2868,19 +2874,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D57" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2906,19 +2912,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D58" s="2">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2944,19 +2950,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2982,16 +2988,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>28</v>
@@ -3020,16 +3026,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
         <v>102</v>
       </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
       <c r="D61" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>28</v>
@@ -3058,16 +3064,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -3096,7 +3102,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
@@ -3108,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3134,7 +3140,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>58</v>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3172,7 +3178,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
@@ -3184,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3210,10 +3216,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -3222,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3248,10 +3254,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3260,34 +3266,102 @@
         <v>0</v>
       </c>
       <c r="F67">
+        <v>31</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
+        <v>-1</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>62</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>-1</v>
-      </c>
-      <c r="K67">
-        <v>-1</v>
-      </c>
-      <c r="L67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>-1</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
@@ -3428,6 +3502,14 @@
     <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3441,7 +3523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3527,10 +3609,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3565,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3606,7 +3688,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3644,7 +3726,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -3682,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3720,7 +3802,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3758,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3796,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3834,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3872,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3907,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3945,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B56EC-823B-174D-AC16-AA37A94923F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE454BA9-4E20-F74B-AB63-147F4CE45E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -213,21 +213,9 @@
     <t>binary</t>
   </si>
   <si>
-    <t>v_x</t>
-  </si>
-  <si>
-    <t>v_y</t>
-  </si>
-  <si>
-    <t>v_z</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>velocity</t>
-  </si>
-  <si>
     <t>ec</t>
   </si>
   <si>
@@ -351,6 +339,15 @@
     <t>cjc</t>
   </si>
   <si>
+    <t>PDU inhibit 1</t>
+  </si>
+  <si>
+    <t>PDU inhibit 2</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>Roll</t>
   </si>
   <si>
@@ -360,10 +357,7 @@
     <t>Yaw</t>
   </si>
   <si>
-    <t>PDU inhibit 1</t>
-  </si>
-  <si>
-    <t>PDU inhibit 2</t>
+    <t>disk space</t>
   </si>
   <si>
     <t>PCB</t>
@@ -732,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:A69"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -822,10 +816,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -860,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1281,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1290,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1319,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1328,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2076,10 +2070,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2114,10 +2108,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2126,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2152,10 +2146,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2164,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2190,19 +2184,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>56</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2228,10 +2222,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2240,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2266,19 +2260,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2304,19 +2298,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2342,19 +2336,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2380,10 +2374,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2392,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2418,19 +2412,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2456,19 +2450,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2494,19 +2488,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2532,19 +2526,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2570,19 +2564,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2608,19 +2602,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2646,19 +2640,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2684,19 +2678,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2722,19 +2716,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2760,19 +2754,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2798,19 +2792,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2836,19 +2830,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2874,19 +2868,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2912,19 +2906,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2950,19 +2944,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2988,16 +2982,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>28</v>
@@ -3026,16 +3020,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>28</v>
@@ -3064,16 +3058,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D62" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -3102,7 +3096,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
@@ -3114,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3140,7 +3134,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>58</v>
@@ -3152,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3178,7 +3172,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
@@ -3190,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3216,10 +3210,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -3228,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3254,10 +3248,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3266,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3287,81 +3281,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>34</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>-1</v>
-      </c>
-      <c r="K68">
-        <v>-1</v>
-      </c>
-      <c r="L68">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>62</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>-1</v>
-      </c>
-      <c r="K69">
-        <v>-1</v>
-      </c>
-      <c r="L69">
-        <v>-1</v>
-      </c>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
@@ -3502,14 +3428,6 @@
     <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3523,7 +3441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:L14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3571,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3609,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3647,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3688,7 +3606,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3726,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -3764,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3802,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3840,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3878,7 +3796,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3916,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3954,7 +3872,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3989,10 +3907,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -4027,10 +3945,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE454BA9-4E20-F74B-AB63-147F4CE45E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6A4D6-DE4B-0249-90DB-D84BF8353FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="2800" yWindow="1020" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -36,334 +36,334 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sup com</t>
+  </si>
+  <si>
+    <t>w assgn 2</t>
+  </si>
+  <si>
+    <t>w assgn 3</t>
+  </si>
+  <si>
+    <t>w assgn</t>
+  </si>
+  <si>
+    <t>a_x</t>
+  </si>
+  <si>
+    <t>a_y</t>
+  </si>
+  <si>
+    <t>a_z</t>
+  </si>
+  <si>
+    <t>omg_x</t>
+  </si>
+  <si>
+    <t>omg_y</t>
+  </si>
+  <si>
+    <t>omg_z</t>
+  </si>
+  <si>
+    <t>B_x</t>
+  </si>
+  <si>
+    <t>B_y</t>
+  </si>
+  <si>
+    <t>B_z</t>
+  </si>
+  <si>
+    <t>sub com mod</t>
+  </si>
+  <si>
+    <t>sub com res</t>
+  </si>
+  <si>
+    <t>Pc,rde</t>
+  </si>
+  <si>
+    <t>Pc,pde</t>
+  </si>
+  <si>
+    <t>a_x,ci</t>
+  </si>
+  <si>
+    <t>a_y,ci</t>
+  </si>
+  <si>
+    <t>a_z,ci</t>
+  </si>
+  <si>
+    <t>omg_x,ci</t>
+  </si>
+  <si>
+    <t>omg_y,ci</t>
+  </si>
+  <si>
+    <t>omg_z,ci</t>
+  </si>
+  <si>
+    <t>w assgn 4</t>
+  </si>
+  <si>
+    <t>coeff b</t>
+  </si>
+  <si>
+    <t>coeff a</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>omg</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Ptf</t>
+  </si>
+  <si>
+    <t>Pto</t>
+  </si>
+  <si>
+    <t>Ptn</t>
+  </si>
+  <si>
+    <t>Prgf</t>
+  </si>
+  <si>
+    <t>Prgo</t>
+  </si>
+  <si>
+    <t>Prgn</t>
+  </si>
+  <si>
+    <t>Pplef1</t>
+  </si>
+  <si>
+    <t>Pplef2</t>
+  </si>
+  <si>
+    <t>Ppleo</t>
+  </si>
+  <si>
+    <t>Pthrde</t>
+  </si>
+  <si>
+    <t>Ttf</t>
+  </si>
+  <si>
+    <t>Tto</t>
+  </si>
+  <si>
+    <t>Ttn</t>
+  </si>
+  <si>
+    <t>Trgf</t>
+  </si>
+  <si>
+    <t>Trgo</t>
+  </si>
+  <si>
+    <t>Tcrde</t>
+  </si>
+  <si>
+    <t>Tthrde</t>
+  </si>
+  <si>
+    <t>Tcpde</t>
+  </si>
+  <si>
+    <t>Tcrio</t>
+  </si>
+  <si>
+    <t>Tmcu</t>
+  </si>
+  <si>
+    <t>AutoZero</t>
+  </si>
+  <si>
+    <t>CJC</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>GSE day</t>
+  </si>
+  <si>
+    <t>GSE time</t>
+  </si>
+  <si>
+    <t>p ana</t>
+  </si>
+  <si>
+    <t>a ci</t>
+  </si>
+  <si>
+    <t>omg ci</t>
+  </si>
+  <si>
+    <t>GSE Day</t>
+  </si>
+  <si>
+    <t>GSE Time</t>
+  </si>
+  <si>
+    <t>TLM frame counter</t>
+  </si>
+  <si>
+    <t>gse day</t>
+  </si>
+  <si>
+    <t>gse time</t>
+  </si>
+  <si>
+    <t>Relay 2-8</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>DES loop counter</t>
+  </si>
+  <si>
+    <t>V24 control</t>
+  </si>
+  <si>
+    <t>V24 valve</t>
+  </si>
+  <si>
+    <t>des time</t>
+  </si>
+  <si>
+    <t>DES time</t>
+  </si>
+  <si>
+    <t>Chassis temperature</t>
+  </si>
+  <si>
+    <t>CPU load</t>
+  </si>
+  <si>
+    <t>RAM load</t>
+  </si>
+  <si>
+    <t>SSD free space</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>cjc</t>
+  </si>
+  <si>
+    <t>PDU inhibit 1</t>
+  </si>
+  <si>
+    <t>PDU inhibit 2</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>disk space</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>F2a Open</t>
+  </si>
+  <si>
+    <t>F2a Close</t>
+  </si>
+  <si>
+    <t>O2a Open</t>
+  </si>
+  <si>
+    <t>O2a Close</t>
+  </si>
+  <si>
+    <t>RSa</t>
+  </si>
+  <si>
+    <t>PFa</t>
+  </si>
+  <si>
+    <t>POSa</t>
+  </si>
+  <si>
+    <t>NRF</t>
+  </si>
+  <si>
+    <t>F2b Open</t>
+  </si>
+  <si>
+    <t>F2b Close</t>
+  </si>
+  <si>
+    <t>O2b Open</t>
+  </si>
+  <si>
+    <t>O2b Close</t>
+  </si>
+  <si>
+    <t>RSb</t>
+  </si>
+  <si>
+    <t>PFb</t>
+  </si>
+  <si>
+    <t>POSb</t>
+  </si>
+  <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sup com</t>
-  </si>
-  <si>
-    <t>w assgn 2</t>
-  </si>
-  <si>
-    <t>w assgn 3</t>
-  </si>
-  <si>
-    <t>w assgn</t>
-  </si>
-  <si>
-    <t>a_x</t>
-  </si>
-  <si>
-    <t>a_y</t>
-  </si>
-  <si>
-    <t>a_z</t>
-  </si>
-  <si>
-    <t>omg_x</t>
-  </si>
-  <si>
-    <t>omg_y</t>
-  </si>
-  <si>
-    <t>omg_z</t>
-  </si>
-  <si>
-    <t>B_x</t>
-  </si>
-  <si>
-    <t>B_y</t>
-  </si>
-  <si>
-    <t>B_z</t>
-  </si>
-  <si>
-    <t>sub com mod</t>
-  </si>
-  <si>
-    <t>sub com res</t>
-  </si>
-  <si>
-    <t>Pc,rde</t>
-  </si>
-  <si>
-    <t>Pc,pde</t>
-  </si>
-  <si>
-    <t>a_x,ci</t>
-  </si>
-  <si>
-    <t>a_y,ci</t>
-  </si>
-  <si>
-    <t>a_z,ci</t>
-  </si>
-  <si>
-    <t>omg_x,ci</t>
-  </si>
-  <si>
-    <t>omg_y,ci</t>
-  </si>
-  <si>
-    <t>omg_z,ci</t>
-  </si>
-  <si>
-    <t>w assgn 4</t>
-  </si>
-  <si>
-    <t>coeff b</t>
-  </si>
-  <si>
-    <t>coeff a</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>omg</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Ptf</t>
-  </si>
-  <si>
-    <t>Pto</t>
-  </si>
-  <si>
-    <t>Ptn</t>
-  </si>
-  <si>
-    <t>Prgf</t>
-  </si>
-  <si>
-    <t>Prgo</t>
-  </si>
-  <si>
-    <t>Prgn</t>
-  </si>
-  <si>
-    <t>Pplef1</t>
-  </si>
-  <si>
-    <t>Pplef2</t>
-  </si>
-  <si>
-    <t>Ppleo</t>
-  </si>
-  <si>
-    <t>Pthrde</t>
-  </si>
-  <si>
-    <t>Ttf</t>
-  </si>
-  <si>
-    <t>Tto</t>
-  </si>
-  <si>
-    <t>Ttn</t>
-  </si>
-  <si>
-    <t>Trgf</t>
-  </si>
-  <si>
-    <t>Trgo</t>
-  </si>
-  <si>
-    <t>Tcrde</t>
-  </si>
-  <si>
-    <t>Tthrde</t>
-  </si>
-  <si>
-    <t>Tcpde</t>
-  </si>
-  <si>
-    <t>Tcrio</t>
-  </si>
-  <si>
-    <t>Tmcu</t>
-  </si>
-  <si>
-    <t>AutoZero</t>
-  </si>
-  <si>
-    <t>CJC</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>ec</t>
-  </si>
-  <si>
-    <t>GSE day</t>
-  </si>
-  <si>
-    <t>GSE time</t>
-  </si>
-  <si>
-    <t>p ana</t>
-  </si>
-  <si>
-    <t>a ci</t>
-  </si>
-  <si>
-    <t>omg ci</t>
-  </si>
-  <si>
-    <t>GSE Day</t>
-  </si>
-  <si>
-    <t>GSE Time</t>
-  </si>
-  <si>
-    <t>TLM frame counter</t>
-  </si>
-  <si>
-    <t>gse day</t>
-  </si>
-  <si>
-    <t>gse time</t>
-  </si>
-  <si>
-    <t>Relay 1-1</t>
-  </si>
-  <si>
-    <t>Relay 1-2</t>
-  </si>
-  <si>
-    <t>Relay 1-3</t>
-  </si>
-  <si>
-    <t>Relay 1-4</t>
-  </si>
-  <si>
-    <t>Relay 1-5</t>
-  </si>
-  <si>
-    <t>Relay 1-6</t>
-  </si>
-  <si>
-    <t>Relay 1-7</t>
-  </si>
-  <si>
-    <t>Relay 1-8</t>
-  </si>
-  <si>
-    <t>Relay 2-1</t>
-  </si>
-  <si>
-    <t>Relay 2-2</t>
-  </si>
-  <si>
-    <t>Relay 2-3</t>
-  </si>
-  <si>
-    <t>Relay 2-4</t>
-  </si>
-  <si>
-    <t>Relay 2-5</t>
-  </si>
-  <si>
-    <t>Relay 2-6</t>
-  </si>
-  <si>
-    <t>Relay 2-7</t>
-  </si>
-  <si>
-    <t>Relay 2-8</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>DES loop counter</t>
-  </si>
-  <si>
-    <t>V24 control</t>
-  </si>
-  <si>
-    <t>V24 valve</t>
-  </si>
-  <si>
-    <t>des time</t>
-  </si>
-  <si>
-    <t>DES time</t>
-  </si>
-  <si>
-    <t>Chassis temperature</t>
-  </si>
-  <si>
-    <t>CPU load</t>
-  </si>
-  <si>
-    <t>RAM load</t>
-  </si>
-  <si>
-    <t>SSD free space</t>
-  </si>
-  <si>
-    <t>Error Code</t>
-  </si>
-  <si>
-    <t>rel</t>
-  </si>
-  <si>
-    <t>az</t>
-  </si>
-  <si>
-    <t>cjc</t>
-  </si>
-  <si>
-    <t>PDU inhibit 1</t>
-  </si>
-  <si>
-    <t>PDU inhibit 2</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>Yaw</t>
-  </si>
-  <si>
-    <t>disk space</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,98 +730,98 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -850,14 +851,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -888,14 +889,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -926,14 +927,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -964,14 +965,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1002,14 +1003,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>0.2</v>
@@ -1040,14 +1041,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -1078,14 +1079,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>0.2</v>
@@ -1116,14 +1117,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>0.2</v>
@@ -1154,14 +1155,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>0.2</v>
@@ -1192,14 +1193,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>0.2</v>
@@ -1230,14 +1231,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>0.1</v>
@@ -1268,14 +1269,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1306,14 +1307,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1344,14 +1345,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1382,14 +1383,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1420,14 +1421,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1458,14 +1459,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1496,14 +1497,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1534,14 +1535,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1572,14 +1573,14 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1610,14 +1611,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1648,14 +1649,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1686,14 +1687,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1724,14 +1725,14 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1762,14 +1763,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1800,14 +1801,14 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1838,14 +1839,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1876,14 +1877,14 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1914,14 +1915,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1952,14 +1953,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1990,14 +1991,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2028,14 +2029,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2066,14 +2067,14 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2104,14 +2105,14 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2142,14 +2143,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2180,14 +2181,14 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2218,14 +2219,14 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2256,14 +2257,14 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
         <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
       </c>
       <c r="D41" s="2">
         <v>1.1000000000000001</v>
@@ -2294,14 +2295,14 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2">
         <v>5.3</v>
@@ -2332,14 +2333,14 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2">
         <v>5.3</v>
@@ -2370,14 +2371,14 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2408,14 +2409,14 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -2446,14 +2447,14 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -2484,14 +2485,14 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2">
         <v>8</v>
@@ -2522,14 +2523,14 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2">
         <v>16</v>
@@ -2560,14 +2561,14 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2">
         <v>32</v>
@@ -2598,14 +2599,14 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2">
         <v>64</v>
@@ -2636,14 +2637,14 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D51" s="2">
         <v>128</v>
@@ -2674,14 +2675,14 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -2712,14 +2713,14 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -2750,14 +2751,14 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
@@ -2788,14 +2789,14 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
         <v>82</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
       </c>
       <c r="D55" s="2">
         <v>8</v>
@@ -2826,14 +2827,14 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D56" s="2">
         <v>16</v>
@@ -2864,14 +2865,14 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D57" s="2">
         <v>32</v>
@@ -2902,14 +2903,14 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D58" s="2">
         <v>64</v>
@@ -2940,14 +2941,14 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D59" s="2">
         <v>128</v>
@@ -2978,14 +2979,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -3016,14 +3017,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -3054,14 +3055,14 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -3092,14 +3093,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -3130,14 +3131,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -3168,14 +3169,14 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -3206,14 +3207,14 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -3244,14 +3245,14 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3441,47 +3442,47 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3489,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3527,10 +3528,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3565,10 +3566,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3603,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3641,10 +3642,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -3679,10 +3680,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3717,10 +3718,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3755,10 +3756,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3793,10 +3794,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3831,10 +3832,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3869,10 +3870,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3907,10 +3908,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3945,10 +3946,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F8E30-43AB-DA4D-9080-7AB673C56884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB922C2-C021-A643-81BC-69A185C4B1F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1260" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
   <si>
     <t>item</t>
   </si>
@@ -141,12 +141,6 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel tank pressure </t>
-  </si>
-  <si>
-    <t>Oxidizer tank pressure</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -159,39 +153,9 @@
     <t>MPa</t>
   </si>
   <si>
-    <t>Nitrogen tank pressure</t>
-  </si>
-  <si>
-    <t>SMT frame counter</t>
-  </si>
-  <si>
-    <t>Regurated nitrogen pressure</t>
-  </si>
-  <si>
-    <t>RDE fuel plenum pressure 1</t>
-  </si>
-  <si>
-    <t>RDE fuel plenum pressure 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDE oxidizer plenum pressure </t>
-  </si>
-  <si>
-    <t>RDE throat pressure</t>
-  </si>
-  <si>
     <t>uV</t>
   </si>
   <si>
-    <t>Temperature input module auto zero</t>
-  </si>
-  <si>
-    <t>Temperature input module cold junction compensation</t>
-  </si>
-  <si>
-    <t>Fuel tank temperature</t>
-  </si>
-  <si>
     <t>°C</t>
   </si>
   <si>
@@ -306,9 +270,6 @@
     <t>POSb</t>
   </si>
   <si>
-    <t>m/s/s</t>
-  </si>
-  <si>
     <t>integer bit len</t>
   </si>
   <si>
@@ -327,24 +288,9 @@
     <t>ordinary item</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Regurated fuel pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regurated oxidizer pressure </t>
-  </si>
-  <si>
-    <t>Oxidizer tank temperature</t>
-  </si>
-  <si>
-    <t>Nitorgen tank pressure</t>
-  </si>
-  <si>
     <t>y_min</t>
   </si>
   <si>
@@ -391,9 +337,6 @@
   </si>
   <si>
     <t>W013</t>
-  </si>
-  <si>
-    <t>days</t>
   </si>
   <si>
     <t>W036</t>
@@ -918,16 +861,16 @@
   <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -947,61 +890,61 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
-      </c>
       <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
         <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1048,33 +991,27 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" t="s">
-        <v>119</v>
+      <c r="T2">
+        <v>-10</v>
       </c>
       <c r="U2">
-        <v>-10</v>
+        <v>380</v>
       </c>
       <c r="V2">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
         <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1116,21 +1053,18 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1175,36 +1109,30 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
+      <c r="S4">
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="V4">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
         <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1249,36 +1177,33 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5">
+        <v>38</v>
+      </c>
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="U5" s="2">
+      <c r="T5" s="2">
         <v>-0.5</v>
       </c>
+      <c r="U5">
+        <v>15.5</v>
+      </c>
       <c r="V5">
-        <v>15.5</v>
+        <v>0.3</v>
       </c>
       <c r="W5">
-        <v>0.3</v>
-      </c>
-      <c r="X5">
         <v>14.7</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1323,33 +1248,30 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="2">
+        <v>38</v>
+      </c>
+      <c r="T6" s="2">
         <v>-0.5</v>
       </c>
+      <c r="U6">
+        <v>15.5</v>
+      </c>
       <c r="V6">
-        <v>15.5</v>
+        <v>0.3</v>
       </c>
       <c r="W6">
-        <v>0.3</v>
-      </c>
-      <c r="X6">
         <v>14.7</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1394,33 +1316,30 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q7">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="2">
+        <v>38</v>
+      </c>
+      <c r="T7" s="2">
         <v>-0.5</v>
       </c>
+      <c r="U7">
+        <v>15.5</v>
+      </c>
       <c r="V7">
-        <v>15.5</v>
+        <v>0.3</v>
       </c>
       <c r="W7">
-        <v>0.3</v>
-      </c>
-      <c r="X7">
         <v>14.7</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1465,33 +1384,30 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="2">
+        <v>38</v>
+      </c>
+      <c r="T8" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U8">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="V8">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1536,33 +1452,30 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="2">
+        <v>38</v>
+      </c>
+      <c r="T9" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="V9">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1607,33 +1520,30 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="2">
+        <v>38</v>
+      </c>
+      <c r="T10" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="V10">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1678,33 +1588,30 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U11">
+        <v>1.6</v>
+      </c>
       <c r="V11">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1749,33 +1656,30 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="2">
+        <v>38</v>
+      </c>
+      <c r="T12" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U12">
+        <v>1.6</v>
+      </c>
       <c r="V12">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1820,33 +1724,30 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U13">
+        <v>1.6</v>
+      </c>
       <c r="V13">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1891,33 +1792,30 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>10</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="2">
+        <v>38</v>
+      </c>
+      <c r="T14" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U14">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="V14">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1962,33 +1860,30 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>10</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" s="2">
+        <v>39</v>
+      </c>
+      <c r="T15" s="2">
         <v>-22</v>
       </c>
+      <c r="U15">
+        <v>22</v>
+      </c>
       <c r="V15">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="W15">
-        <v>-22</v>
-      </c>
-      <c r="X15">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2033,33 +1928,30 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>11</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="2">
+        <v>39</v>
+      </c>
+      <c r="T16" s="2">
         <v>-2500</v>
       </c>
+      <c r="U16">
+        <v>2500</v>
+      </c>
       <c r="V16">
+        <v>-2500</v>
+      </c>
+      <c r="W16">
         <v>2500</v>
       </c>
-      <c r="W16">
-        <v>-2500</v>
-      </c>
-      <c r="X16">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2104,36 +1996,33 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" t="s">
-        <v>52</v>
-      </c>
-      <c r="T17">
+        <v>40</v>
+      </c>
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="U17" s="2">
+      <c r="T17" s="2">
         <v>-5</v>
       </c>
+      <c r="U17">
+        <v>45</v>
+      </c>
       <c r="V17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2178,33 +2067,30 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" t="s">
-        <v>52</v>
-      </c>
-      <c r="U18" s="2">
+        <v>40</v>
+      </c>
+      <c r="T18" s="2">
         <v>-5</v>
       </c>
+      <c r="U18">
+        <v>45</v>
+      </c>
       <c r="V18">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2249,33 +2135,30 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U19" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" s="2">
         <v>-5</v>
       </c>
+      <c r="U19">
+        <v>45</v>
+      </c>
       <c r="V19">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2320,30 +2203,30 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
-      <c r="S20" t="s">
-        <v>52</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="2">
         <v>-5</v>
       </c>
+      <c r="U20">
+        <v>45</v>
+      </c>
       <c r="V20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2388,30 +2271,30 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>4</v>
       </c>
-      <c r="S21" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="2">
         <v>-5</v>
       </c>
+      <c r="U21">
+        <v>45</v>
+      </c>
       <c r="V21">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2456,30 +2339,30 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="S22" t="s">
-        <v>52</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="R22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="2">
         <v>-20</v>
       </c>
+      <c r="U22">
+        <v>220</v>
+      </c>
       <c r="V22">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2524,30 +2407,30 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q23">
         <v>7</v>
       </c>
-      <c r="S23" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="R23" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="2">
         <v>-20</v>
       </c>
+      <c r="U23">
+        <v>220</v>
+      </c>
       <c r="V23">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2592,30 +2475,30 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q24">
         <v>8</v>
       </c>
-      <c r="S24" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="R24" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="2">
         <v>-5</v>
       </c>
+      <c r="U24">
+        <v>45</v>
+      </c>
       <c r="V24">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2660,30 +2543,30 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="S25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="R25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="2">
         <v>-5</v>
       </c>
+      <c r="U25">
+        <v>45</v>
+      </c>
       <c r="V25">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2728,30 +2611,30 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>7</v>
       </c>
-      <c r="S26" t="s">
-        <v>52</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="2">
         <v>-5</v>
       </c>
+      <c r="U26">
+        <v>45</v>
+      </c>
       <c r="V26">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2796,33 +2679,33 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
-        <v>145</v>
-      </c>
-      <c r="T27">
+      <c r="R27" t="s">
+        <v>126</v>
+      </c>
+      <c r="S27">
         <v>4</v>
       </c>
-      <c r="U27" s="2">
+      <c r="T27" s="2">
         <v>-13</v>
       </c>
+      <c r="U27">
+        <v>13</v>
+      </c>
       <c r="V27">
-        <v>13</v>
+        <v>-10</v>
       </c>
       <c r="W27">
-        <v>-10</v>
-      </c>
-      <c r="X27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2867,30 +2750,30 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="S28" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="2">
+      <c r="R28" t="s">
+        <v>126</v>
+      </c>
+      <c r="T28" s="2">
         <v>-13</v>
       </c>
+      <c r="U28">
+        <v>13</v>
+      </c>
       <c r="V28">
-        <v>13</v>
+        <v>-10</v>
       </c>
       <c r="W28">
-        <v>-10</v>
-      </c>
-      <c r="X28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2935,30 +2818,30 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
-      <c r="S29" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="2">
+      <c r="R29" t="s">
+        <v>126</v>
+      </c>
+      <c r="T29" s="2">
         <v>-13</v>
       </c>
+      <c r="U29">
+        <v>13</v>
+      </c>
       <c r="V29">
-        <v>13</v>
+        <v>-10</v>
       </c>
       <c r="W29">
-        <v>-10</v>
-      </c>
-      <c r="X29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3003,30 +2886,30 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q30">
         <v>3</v>
       </c>
-      <c r="S30" t="s">
-        <v>55</v>
-      </c>
-      <c r="U30" s="2">
+      <c r="R30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="2">
         <v>-1200</v>
       </c>
+      <c r="U30">
+        <v>1200</v>
+      </c>
       <c r="V30">
-        <v>1200</v>
+        <v>-720</v>
       </c>
       <c r="W30">
-        <v>-720</v>
-      </c>
-      <c r="X30">
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3071,30 +2954,30 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
-      <c r="S31" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" s="2">
+      <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="2">
         <v>-1200</v>
       </c>
+      <c r="U31">
+        <v>1200</v>
+      </c>
       <c r="V31">
-        <v>1200</v>
+        <v>-720</v>
       </c>
       <c r="W31">
-        <v>-720</v>
-      </c>
-      <c r="X31">
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3139,30 +3022,30 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>5</v>
       </c>
-      <c r="S32" t="s">
-        <v>55</v>
-      </c>
-      <c r="U32" s="2">
+      <c r="R32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="2">
         <v>-1200</v>
       </c>
+      <c r="U32">
+        <v>1200</v>
+      </c>
       <c r="V32">
-        <v>1200</v>
+        <v>-720</v>
       </c>
       <c r="W32">
-        <v>-720</v>
-      </c>
-      <c r="X32">
         <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3207,30 +3090,30 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="S33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U33" s="2">
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T33" s="2">
         <v>-11800</v>
       </c>
+      <c r="U33">
+        <v>11800</v>
+      </c>
       <c r="V33">
-        <v>11800</v>
+        <v>-10000</v>
       </c>
       <c r="W33">
-        <v>-10000</v>
-      </c>
-      <c r="X33">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3275,30 +3158,30 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q34">
         <v>7</v>
       </c>
-      <c r="S34" t="s">
-        <v>54</v>
-      </c>
-      <c r="U34" s="2">
+      <c r="R34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34" s="2">
         <v>-11800</v>
       </c>
+      <c r="U34">
+        <v>11800</v>
+      </c>
       <c r="V34">
-        <v>11800</v>
+        <v>-10000</v>
       </c>
       <c r="W34">
-        <v>-10000</v>
-      </c>
-      <c r="X34">
         <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3343,30 +3226,30 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>8</v>
       </c>
-      <c r="S35" t="s">
-        <v>54</v>
-      </c>
-      <c r="U35" s="2">
+      <c r="R35" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="2">
         <v>-11800</v>
       </c>
+      <c r="U35">
+        <v>11800</v>
+      </c>
       <c r="V35">
-        <v>11800</v>
+        <v>-10000</v>
       </c>
       <c r="W35">
-        <v>-10000</v>
-      </c>
-      <c r="X35">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3411,30 +3294,30 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>9</v>
       </c>
-      <c r="S36" t="s">
-        <v>53</v>
+      <c r="R36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36">
+        <v>-220</v>
       </c>
       <c r="U36">
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="V36">
-        <v>220</v>
+        <v>-18</v>
       </c>
       <c r="W36">
-        <v>-18</v>
-      </c>
-      <c r="X36">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3479,30 +3362,30 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q37">
         <v>10</v>
       </c>
-      <c r="S37" t="s">
-        <v>53</v>
+      <c r="R37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37">
+        <v>-110</v>
       </c>
       <c r="U37">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="V37">
-        <v>110</v>
+        <v>-90</v>
       </c>
       <c r="W37">
-        <v>-90</v>
-      </c>
-      <c r="X37">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3547,30 +3430,30 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q38">
         <v>11</v>
       </c>
-      <c r="S38" t="s">
-        <v>53</v>
+      <c r="R38" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38">
+        <v>-110</v>
       </c>
       <c r="U38">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="V38">
-        <v>110</v>
+        <v>-90</v>
       </c>
       <c r="W38">
-        <v>-90</v>
-      </c>
-      <c r="X38">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3594,7 +3477,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -3615,15 +3498,15 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>98</v>
-      </c>
-      <c r="S39" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="R39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3668,21 +3551,18 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>98</v>
-      </c>
-      <c r="S40" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="V40">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
         <v>80000</v>
       </c>
     </row>
@@ -3712,7 +3592,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -3733,24 +3613,21 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="S41" t="s">
-        <v>39</v>
+      <c r="T41">
+        <v>-0.4</v>
       </c>
       <c r="U41">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V41">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
         <v>1</v>
       </c>
     </row>
@@ -3780,7 +3657,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -3801,30 +3678,27 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
-      <c r="S42" t="s">
-        <v>39</v>
+      <c r="T42">
+        <v>-0.4</v>
       </c>
       <c r="U42">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V42">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3869,30 +3743,30 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="S43" t="s">
+      <c r="R43" t="s">
         <v>16</v>
       </c>
+      <c r="T43">
+        <v>-1</v>
+      </c>
       <c r="U43">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="V43">
-        <v>31</v>
+        <v>4.5</v>
       </c>
       <c r="W43">
-        <v>4.5</v>
-      </c>
-      <c r="X43">
         <v>5.4</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3937,30 +3811,30 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="S44" t="s">
+      <c r="R44" t="s">
         <v>16</v>
       </c>
+      <c r="T44">
+        <v>-1</v>
+      </c>
       <c r="U44">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="V44">
-        <v>31</v>
+        <v>21.6</v>
       </c>
       <c r="W44">
-        <v>21.6</v>
-      </c>
-      <c r="X44">
         <v>26.4</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4005,30 +3879,30 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
-      <c r="S45" t="s">
+      <c r="R45" t="s">
         <v>16</v>
       </c>
+      <c r="T45">
+        <v>-1</v>
+      </c>
       <c r="U45">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="V45">
-        <v>31</v>
+        <v>21.6</v>
       </c>
       <c r="W45">
-        <v>21.6</v>
-      </c>
-      <c r="X45">
         <v>26.4</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4073,33 +3947,30 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q46">
         <v>3</v>
       </c>
-      <c r="R46" t="s">
-        <v>68</v>
-      </c>
-      <c r="S46" t="s">
-        <v>39</v>
+      <c r="T46">
+        <v>-1</v>
       </c>
       <c r="U46">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="V46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
         <v>10</v>
+      </c>
+      <c r="X46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4123,7 +3994,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -4144,30 +4015,27 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q47">
         <v>6</v>
       </c>
-      <c r="S47" t="s">
-        <v>39</v>
+      <c r="T47">
+        <v>-0.4</v>
       </c>
       <c r="U47">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V47">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4191,7 +4059,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -4212,30 +4080,27 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q48">
         <v>7</v>
       </c>
-      <c r="S48" t="s">
-        <v>39</v>
+      <c r="T48">
+        <v>-0.4</v>
       </c>
       <c r="U48">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V48">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4259,7 +4124,7 @@
         <v>-1</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -4280,30 +4145,27 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q49">
         <v>8</v>
       </c>
-      <c r="S49" t="s">
-        <v>39</v>
+      <c r="T49">
+        <v>-0.4</v>
       </c>
       <c r="U49">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V49">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4327,7 +4189,7 @@
         <v>-1</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -4348,30 +4210,27 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q50">
         <v>9</v>
       </c>
-      <c r="S50" t="s">
-        <v>39</v>
+      <c r="T50">
+        <v>-0.4</v>
       </c>
       <c r="U50">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V50">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4395,7 +4254,7 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -4416,30 +4275,27 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q51">
         <v>12</v>
       </c>
-      <c r="S51" t="s">
-        <v>39</v>
+      <c r="T51">
+        <v>-0.4</v>
       </c>
       <c r="U51">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V51">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4463,7 +4319,7 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -4484,30 +4340,27 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q52">
         <v>13</v>
       </c>
-      <c r="S52" t="s">
-        <v>39</v>
+      <c r="T52">
+        <v>-0.4</v>
       </c>
       <c r="U52">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V52">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4531,7 +4384,7 @@
         <v>-1</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -4552,30 +4405,27 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q53">
         <v>14</v>
       </c>
-      <c r="S53" t="s">
-        <v>39</v>
+      <c r="T53">
+        <v>-0.4</v>
       </c>
       <c r="U53">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V53">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4599,7 +4449,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -4620,30 +4470,27 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q54">
         <v>15</v>
       </c>
-      <c r="S54" t="s">
-        <v>39</v>
+      <c r="T54">
+        <v>-0.4</v>
       </c>
       <c r="U54">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V54">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4667,7 +4514,7 @@
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -4688,30 +4535,27 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q55">
         <v>18</v>
       </c>
-      <c r="S55" t="s">
-        <v>39</v>
+      <c r="T55">
+        <v>-0.4</v>
       </c>
       <c r="U55">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V55">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4735,7 +4579,7 @@
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
@@ -4756,30 +4600,27 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q56">
         <v>19</v>
       </c>
-      <c r="S56" t="s">
-        <v>39</v>
+      <c r="T56">
+        <v>-0.4</v>
       </c>
       <c r="U56">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V56">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4803,7 +4644,7 @@
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -4824,30 +4665,27 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q57">
         <v>20</v>
       </c>
-      <c r="S57" t="s">
-        <v>39</v>
+      <c r="T57">
+        <v>-0.4</v>
       </c>
       <c r="U57">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V57">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4871,7 +4709,7 @@
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -4892,30 +4730,27 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q58">
         <v>21</v>
       </c>
-      <c r="S58" t="s">
-        <v>39</v>
+      <c r="T58">
+        <v>-0.4</v>
       </c>
       <c r="U58">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V58">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4939,7 +4774,7 @@
         <v>-1</v>
       </c>
       <c r="I59" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -4960,30 +4795,27 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q59">
         <v>24</v>
       </c>
-      <c r="S59" t="s">
-        <v>39</v>
+      <c r="T59">
+        <v>-0.4</v>
       </c>
       <c r="U59">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V59">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5007,7 +4839,7 @@
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -5028,30 +4860,27 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q60">
         <v>25</v>
       </c>
-      <c r="S60" t="s">
-        <v>39</v>
+      <c r="T60">
+        <v>-0.4</v>
       </c>
       <c r="U60">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V60">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5075,7 +4904,7 @@
         <v>-1</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -5096,28 +4925,25 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q61">
         <v>26</v>
       </c>
-      <c r="S61" t="s">
-        <v>39</v>
+      <c r="T61">
+        <v>-0.4</v>
       </c>
       <c r="U61">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V61">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -5143,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -5164,30 +4990,24 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q62">
-        <v>27</v>
-      </c>
-      <c r="S62" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="T62">
+        <v>-0.4</v>
       </c>
       <c r="U62">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="V62">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5232,30 +5052,30 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q63">
         <v>8</v>
       </c>
-      <c r="S63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U63" s="2">
+      <c r="R63" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63" s="2">
         <v>-5</v>
       </c>
+      <c r="U63">
+        <v>45</v>
+      </c>
       <c r="V63">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5300,30 +5120,30 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q64">
         <v>12</v>
       </c>
-      <c r="S64" t="s">
-        <v>56</v>
+      <c r="R64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T64">
+        <v>-10</v>
       </c>
       <c r="U64">
-        <v>-10</v>
+        <v>110</v>
       </c>
       <c r="V64">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5368,30 +5188,30 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q65">
         <v>13</v>
       </c>
-      <c r="S65" t="s">
-        <v>73</v>
+      <c r="R65" t="s">
+        <v>61</v>
+      </c>
+      <c r="T65">
+        <v>-200</v>
       </c>
       <c r="U65">
-        <v>-200</v>
+        <v>4200</v>
       </c>
       <c r="V65">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
         <v>4000</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5436,28 +5256,28 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q66">
         <v>14</v>
       </c>
-      <c r="S66" t="s">
-        <v>74</v>
+      <c r="R66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T66">
+        <v>-40</v>
       </c>
       <c r="U66">
-        <v>-40</v>
+        <v>540</v>
       </c>
       <c r="V66">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -5504,18 +5324,18 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q67">
         <v>15</v>
       </c>
-      <c r="S67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5560,29 +5380,29 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>114</v>
-      </c>
-      <c r="S68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="R68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
@@ -5753,66 +5573,66 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
-      </c>
       <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
         <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5854,30 +5674,27 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
-        <v>119</v>
+      <c r="T2">
+        <v>-10</v>
       </c>
       <c r="U2">
-        <v>-10</v>
+        <v>380</v>
       </c>
       <c r="V2">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
         <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5919,18 +5736,18 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
-        <v>38</v>
+      <c r="R3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5975,30 +5792,27 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
-        <v>39</v>
+      <c r="T4">
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="V4">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
         <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6043,33 +5857,33 @@
         <v>-0.25</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q5">
         <v>9</v>
       </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U5">
+        <v>1.3</v>
+      </c>
       <c r="V5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6114,24 +5928,24 @@
         <v>-0.25</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q6">
         <v>11</v>
       </c>
-      <c r="S6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="2">
         <v>-0.1</v>
       </c>
+      <c r="U6">
+        <v>1.3</v>
+      </c>
       <c r="V6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
         <v>1</v>
       </c>
     </row>
@@ -6182,21 +5996,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7">
+        <v>-12</v>
       </c>
       <c r="U7">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="V7">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="W7">
-        <v>-10</v>
-      </c>
-      <c r="X7">
         <v>10</v>
       </c>
     </row>
@@ -6247,21 +6061,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8">
+        <v>-12</v>
       </c>
       <c r="U8">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="V8">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="W8">
-        <v>-10</v>
-      </c>
-      <c r="X8">
         <v>10</v>
       </c>
     </row>
@@ -6312,21 +6126,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9">
+        <v>-12</v>
       </c>
       <c r="U9">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="V9">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="W9">
-        <v>-10</v>
-      </c>
-      <c r="X9">
         <v>10</v>
       </c>
     </row>
@@ -6377,21 +6191,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10">
+        <v>-1000</v>
       </c>
       <c r="U10">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="V10">
-        <v>1000</v>
+        <v>-720</v>
       </c>
       <c r="W10">
-        <v>-720</v>
-      </c>
-      <c r="X10">
         <v>720</v>
       </c>
     </row>
@@ -6442,21 +6256,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11">
+        <v>-1000</v>
       </c>
       <c r="U11">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="V11">
-        <v>1000</v>
+        <v>-720</v>
       </c>
       <c r="W11">
-        <v>-720</v>
-      </c>
-      <c r="X11">
         <v>720</v>
       </c>
     </row>
@@ -6507,27 +6321,27 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12">
+        <v>-1000</v>
       </c>
       <c r="U12">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="V12">
-        <v>1000</v>
+        <v>-720</v>
       </c>
       <c r="W12">
-        <v>-720</v>
-      </c>
-      <c r="X12">
         <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6572,27 +6386,24 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="V13">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
         <v>70000</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6616,7 +6427,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -6637,15 +6448,12 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6669,7 +6477,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -6690,27 +6498,27 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" t="s">
         <v>16</v>
       </c>
+      <c r="T15">
+        <v>-11</v>
+      </c>
       <c r="U15">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="V15">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="W15">
-        <v>-9</v>
-      </c>
-      <c r="X15">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6734,7 +6542,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -6755,27 +6563,27 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
-      </c>
-      <c r="S16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
         <v>16</v>
       </c>
+      <c r="T16">
+        <v>-11</v>
+      </c>
       <c r="U16">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="V16">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="W16">
-        <v>-9</v>
-      </c>
-      <c r="X16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6820,15 +6628,12 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6873,15 +6678,12 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6926,15 +6728,12 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
-      </c>
-      <c r="S19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6979,10 +6778,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
-      </c>
-      <c r="S20" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/Dropbox/研究/detonation/S-520-31/設計資料/GSE/テレメQL/desql v1.0.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB922C2-C021-A643-81BC-69A185C4B1F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7D0CC-C65D-0846-87D9-8843E0C65A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1260" windowWidth="28800" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="156">
   <si>
     <t>item</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>Loop count (smt)</t>
+  </si>
+  <si>
+    <t>PI-AVIO I</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -860,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5542,9 +5548,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6581,7 +6587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6779,6 +6785,59 @@
       </c>
       <c r="P20" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/Dropbox/研究/detonation/S-520-31/設計資料/GSE/テレメQL/desql v1.0.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7D0CC-C65D-0846-87D9-8843E0C65A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803047D5-4294-5249-B6CF-17916E128713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -866,11 +866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2693,9 +2693,6 @@
       <c r="R27" t="s">
         <v>126</v>
       </c>
-      <c r="S27">
-        <v>4</v>
-      </c>
       <c r="T27" s="2">
         <v>-13</v>
       </c>
@@ -5550,7 +5547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6587,7 +6584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6637,7 +6634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -6687,7 +6684,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -6834,10 +6831,28 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>54</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
       </c>
       <c r="R21" t="s">
         <v>155</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>-0.1</v>
+      </c>
+      <c r="U21">
+        <v>11</v>
+      </c>
+      <c r="V21">
+        <v>-1</v>
+      </c>
+      <c r="W21">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803047D5-4294-5249-B6CF-17916E128713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9F49D-039C-344E-B4DC-F9003EE9B291}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00.E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -546,10 +547,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5547,11 +5549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6824,8 +6826,8 @@
       <c r="M21">
         <v>16</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
+      <c r="N21" s="3">
+        <v>7.6299999999999998E-5</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B87A71-7C23-7C43-84FB-3DE3F548FFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81227795-A526-BB4B-80BC-AB13E3390352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5794,7 +5794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6269,6 +6269,9 @@
       <c r="Q7" t="s">
         <v>51</v>
       </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
       <c r="S7" t="s">
         <v>126</v>
       </c>
@@ -6337,6 +6340,9 @@
       <c r="Q8" t="s">
         <v>51</v>
       </c>
+      <c r="R8">
+        <v>13</v>
+      </c>
       <c r="S8" t="s">
         <v>126</v>
       </c>
@@ -6405,6 +6411,9 @@
       <c r="Q9" t="s">
         <v>51</v>
       </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
       <c r="S9" t="s">
         <v>126</v>
       </c>
@@ -6473,6 +6482,9 @@
       <c r="Q10" t="s">
         <v>51</v>
       </c>
+      <c r="R10">
+        <v>15</v>
+      </c>
       <c r="S10" t="s">
         <v>43</v>
       </c>
@@ -6541,6 +6553,9 @@
       <c r="Q11" t="s">
         <v>51</v>
       </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
       <c r="S11" t="s">
         <v>43</v>
       </c>
@@ -6608,6 +6623,9 @@
       </c>
       <c r="Q12" t="s">
         <v>51</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
       </c>
       <c r="S12" t="s">
         <v>43</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81227795-A526-BB4B-80BC-AB13E3390352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F9114-CEDE-F347-802D-2A2D1BB921C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="158">
   <si>
     <t>item</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>decimal</t>
+  </si>
+  <si>
+    <t>IG I</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1985,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="s">
         <v>53</v>
@@ -5537,7 +5540,7 @@
         <v>54</v>
       </c>
       <c r="R67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S67" t="s">
         <v>37</v>
@@ -5792,9 +5795,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6222,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6231,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -6293,7 +6296,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6302,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6364,7 +6367,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6373,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6435,7 +6438,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6444,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -6506,7 +6509,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6515,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6577,7 +6580,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7181,6 +7184,65 @@
       </c>
       <c r="X21">
         <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F9114-CEDE-F347-802D-2A2D1BB921C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6434EA-9EAE-0843-8C0F-52C1EE31D83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5797,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>-1</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6434EA-9EAE-0843-8C0F-52C1EE31D83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0A358-7C8A-574A-A720-4386E0D3C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="780" windowWidth="28340" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1560" yWindow="8320" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -5801,7 +5801,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6261,10 +6261,10 @@
         <v>16</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>-7.3485037299999998E-3</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>224.638244528</v>
       </c>
       <c r="P7" s="4">
         <v>2</v>
@@ -6332,10 +6332,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>-7.2561042000000003E-3</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>214.35439313200001</v>
       </c>
       <c r="P8" s="4">
         <v>2</v>
@@ -6403,10 +6403,10 @@
         <v>16</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>7.4936784300000002E-3</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>-230.94580335500001</v>
       </c>
       <c r="P9" s="4">
         <v>2</v>
@@ -6474,10 +6474,10 @@
         <v>16</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>3.1028564000000002E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>-996.66850999999997</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
@@ -6545,10 +6545,10 @@
         <v>16</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>3.0411868000000002E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>-984.91875000000005</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -6616,10 +6616,10 @@
         <v>16</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>2.9739155999999999E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>-920.69453999999996</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>

--- a/ql-async/config_tlm.xlsx
+++ b/ql-async/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0A358-7C8A-574A-A720-4386E0D3C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D246976-FACC-284D-B91C-B8E4358A2BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="8320" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -5801,7 +5801,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>16</v>
@@ -6326,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>16</v>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>16</v>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>16</v>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>16</v>
@@ -6610,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>16</v>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>16</v>
@@ -7221,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>16</v>
